--- a/ROIModule.xlsx
+++ b/ROIModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seven\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seven\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C05818-FE34-4F01-9D23-F3AD4CB256DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAD16A1-EB93-4AF9-930E-ABA8E0369CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{208CBD52-3389-45EA-8DF5-8546316AB37C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{208CBD52-3389-45EA-8DF5-8546316AB37C}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX Summary" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +174,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -768,6 +762,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Months)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -837,6 +889,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cumulative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Profit ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -911,6 +1021,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -918,7 +1029,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1923,13 +2033,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1938,10 +2048,10 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1949,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +2067,7 @@
         <v>1609450</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +2075,7 @@
         <v>1122500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +2083,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2091,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +2099,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2107,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2005,7 +2115,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2026,14 +2136,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +2152,7 @@
         <v>431000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2050,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2168,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2176,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2087,13 +2197,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2110,7 +2220,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2119,7 +2229,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2141,13 +2251,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2163,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2171,7 +2281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2188,7 +2298,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2197,7 +2307,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2206,7 +2316,7 @@
         <v>1125000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2225,16 +2335,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2248,7 +2358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2264,7 +2374,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2281,7 +2391,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A37" si="1">A3+1</f>
         <v>3</v>
@@ -2298,7 +2408,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2315,7 +2425,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2332,7 +2442,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2349,7 +2459,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2366,7 +2476,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2383,7 +2493,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2400,7 +2510,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2417,7 +2527,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2434,7 +2544,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2451,7 +2561,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2468,7 +2578,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2485,7 +2595,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2502,7 +2612,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2519,7 +2629,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2536,7 +2646,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2553,7 +2663,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2570,7 +2680,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2587,7 +2697,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2604,7 +2714,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2621,7 +2731,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2638,7 +2748,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2655,7 +2765,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2672,7 +2782,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2689,7 +2799,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2706,7 +2816,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2723,7 +2833,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2740,7 +2850,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2757,7 +2867,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2774,7 +2884,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2791,7 +2901,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2808,7 +2918,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2825,7 +2935,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2842,7 +2952,7 @@
         <v>5801950</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
